--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col1a2-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col1a2-Itgb3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.723857666666666</v>
+        <v>26.731658</v>
       </c>
       <c r="H2">
-        <v>26.171573</v>
+        <v>80.194974</v>
       </c>
       <c r="I2">
-        <v>0.007098432040951201</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="J2">
-        <v>0.007098432040951203</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N2">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q2">
-        <v>18.25286051305789</v>
+        <v>196.7139763356147</v>
       </c>
       <c r="R2">
-        <v>164.275744617521</v>
+        <v>1770.425787020532</v>
       </c>
       <c r="S2">
-        <v>0.0008787628321123914</v>
+        <v>0.009276467953015148</v>
       </c>
       <c r="T2">
-        <v>0.0008787628321123917</v>
+        <v>0.009276467953015149</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.723857666666666</v>
+        <v>26.731658</v>
       </c>
       <c r="H3">
-        <v>26.171573</v>
+        <v>80.194974</v>
       </c>
       <c r="I3">
-        <v>0.007098432040951201</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="J3">
-        <v>0.007098432040951203</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.405096</v>
       </c>
       <c r="O3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q3">
-        <v>21.53366783733422</v>
+        <v>65.98349790972266</v>
       </c>
       <c r="R3">
-        <v>193.803010536008</v>
+        <v>593.8514811875041</v>
       </c>
       <c r="S3">
-        <v>0.001036713501479182</v>
+        <v>0.003111592857759573</v>
       </c>
       <c r="T3">
-        <v>0.001036713501479182</v>
+        <v>0.003111592857759574</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.723857666666666</v>
+        <v>26.731658</v>
       </c>
       <c r="H4">
-        <v>26.171573</v>
+        <v>80.194974</v>
       </c>
       <c r="I4">
-        <v>0.007098432040951201</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="J4">
-        <v>0.007098432040951203</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N4">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q4">
-        <v>2.756171971918333</v>
+        <v>11.31193769978067</v>
       </c>
       <c r="R4">
-        <v>24.805547747265</v>
+        <v>101.807439298026</v>
       </c>
       <c r="S4">
-        <v>0.0001326927078689427</v>
+        <v>0.0005334385970597708</v>
       </c>
       <c r="T4">
-        <v>0.0001326927078689427</v>
+        <v>0.0005334385970597709</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.723857666666666</v>
+        <v>26.731658</v>
       </c>
       <c r="H5">
-        <v>26.171573</v>
+        <v>80.194974</v>
       </c>
       <c r="I5">
-        <v>0.007098432040951201</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="J5">
-        <v>0.007098432040951203</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N5">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O5">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P5">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q5">
-        <v>2.286371880900445</v>
+        <v>3.570440632428</v>
       </c>
       <c r="R5">
-        <v>20.577346928104</v>
+        <v>32.133965691852</v>
       </c>
       <c r="S5">
-        <v>0.0001100747265276512</v>
+        <v>0.0001683717584375065</v>
       </c>
       <c r="T5">
-        <v>0.0001100747265276512</v>
+        <v>0.0001683717584375065</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.723857666666666</v>
+        <v>26.731658</v>
       </c>
       <c r="H6">
-        <v>26.171573</v>
+        <v>80.194974</v>
       </c>
       <c r="I6">
-        <v>0.007098432040951201</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="J6">
-        <v>0.007098432040951203</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N6">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q6">
-        <v>98.50793386645933</v>
+        <v>216.3444852250993</v>
       </c>
       <c r="R6">
-        <v>886.5714047981339</v>
+        <v>1947.100367025894</v>
       </c>
       <c r="S6">
-        <v>0.004742550401242713</v>
+        <v>0.01020218655220608</v>
       </c>
       <c r="T6">
-        <v>0.004742550401242714</v>
+        <v>0.01020218655220608</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.723857666666666</v>
+        <v>26.731658</v>
       </c>
       <c r="H7">
-        <v>26.171573</v>
+        <v>80.194974</v>
       </c>
       <c r="I7">
-        <v>0.007098432040951201</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="J7">
-        <v>0.007098432040951203</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N7">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q7">
-        <v>4.105153714725222</v>
+        <v>5.129119057644667</v>
       </c>
       <c r="R7">
-        <v>36.946383432527</v>
+        <v>46.162071518802</v>
       </c>
       <c r="S7">
-        <v>0.0001976378717203206</v>
+        <v>0.0002418745706419119</v>
       </c>
       <c r="T7">
-        <v>0.0001976378717203207</v>
+        <v>0.0002418745706419119</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>3195.000976</v>
       </c>
       <c r="I8">
-        <v>0.8665698962346957</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="J8">
-        <v>0.8665698962346958</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N8">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q8">
-        <v>2228.292015692439</v>
+        <v>7837.16628407573</v>
       </c>
       <c r="R8">
-        <v>20054.62814123195</v>
+        <v>70534.49655668158</v>
       </c>
       <c r="S8">
-        <v>0.1072785386752113</v>
+        <v>0.3695783249922386</v>
       </c>
       <c r="T8">
-        <v>0.1072785386752113</v>
+        <v>0.3695783249922386</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>3195.000976</v>
       </c>
       <c r="I9">
-        <v>0.8665698962346957</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="J9">
-        <v>0.8665698962346958</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>7.405096</v>
       </c>
       <c r="O9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q9">
         <v>2628.809883041522</v>
@@ -1013,10 +1013,10 @@
         <v>23659.2889473737</v>
       </c>
       <c r="S9">
-        <v>0.126561007588591</v>
+        <v>0.123967148084074</v>
       </c>
       <c r="T9">
-        <v>0.126561007588591</v>
+        <v>0.1239671480840741</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>3195.000976</v>
       </c>
       <c r="I10">
-        <v>0.8665698962346957</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="J10">
-        <v>0.8665698962346958</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N10">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q10">
-        <v>336.4708777841867</v>
+        <v>450.6722826701138</v>
       </c>
       <c r="R10">
-        <v>3028.23790005768</v>
+        <v>4056.050544031024</v>
       </c>
       <c r="S10">
-        <v>0.01619900076886303</v>
+        <v>0.02125241462441323</v>
       </c>
       <c r="T10">
-        <v>0.01619900076886303</v>
+        <v>0.02125241462441323</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>3195.000976</v>
       </c>
       <c r="I11">
-        <v>0.8665698962346957</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="J11">
-        <v>0.8665698962346958</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N11">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O11">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P11">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q11">
-        <v>279.1181252642276</v>
+        <v>142.247833453472</v>
       </c>
       <c r="R11">
-        <v>2512.063127378048</v>
+        <v>1280.230501081248</v>
       </c>
       <c r="S11">
-        <v>0.01343781891477363</v>
+        <v>0.006708000585406631</v>
       </c>
       <c r="T11">
-        <v>0.01343781891477363</v>
+        <v>0.006708000585406632</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>3195.000976</v>
       </c>
       <c r="I12">
-        <v>0.8665698962346957</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="J12">
-        <v>0.8665698962346958</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N12">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q12">
-        <v>12025.75576359438</v>
+        <v>8619.253887985673</v>
       </c>
       <c r="R12">
-        <v>108231.8018723494</v>
+        <v>77573.28499187106</v>
       </c>
       <c r="S12">
-        <v>0.5789660850992664</v>
+        <v>0.4064593373598763</v>
       </c>
       <c r="T12">
-        <v>0.5789660850992665</v>
+        <v>0.4064593373598764</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>3195.000976</v>
       </c>
       <c r="I13">
-        <v>0.8665698962346957</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="J13">
-        <v>0.8665698962346958</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N13">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q13">
-        <v>501.1532980909138</v>
+        <v>204.3462274231165</v>
       </c>
       <c r="R13">
-        <v>4510.379682818225</v>
+        <v>1839.116046808048</v>
       </c>
       <c r="S13">
-        <v>0.02412744518799032</v>
+        <v>0.009636383063987147</v>
       </c>
       <c r="T13">
-        <v>0.02412744518799032</v>
+        <v>0.009636383063987147</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8450703333333333</v>
+        <v>0.1721486666666666</v>
       </c>
       <c r="H14">
-        <v>2.535211</v>
+        <v>0.516446</v>
       </c>
       <c r="I14">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="J14">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N14">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q14">
-        <v>1.768134179560778</v>
+        <v>1.266814379447555</v>
       </c>
       <c r="R14">
-        <v>15.913207616047</v>
+        <v>11.401329415028</v>
       </c>
       <c r="S14">
-        <v>8.512477252943445E-05</v>
+        <v>5.973933938132908E-05</v>
       </c>
       <c r="T14">
-        <v>8.512477252943446E-05</v>
+        <v>5.973933938132908E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8450703333333333</v>
+        <v>0.1721486666666666</v>
       </c>
       <c r="H15">
-        <v>2.535211</v>
+        <v>0.516446</v>
       </c>
       <c r="I15">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="J15">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.405096</v>
       </c>
       <c r="O15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q15">
-        <v>2.085942315028444</v>
+        <v>0.4249258009795555</v>
       </c>
       <c r="R15">
-        <v>18.773480835256</v>
+        <v>3.824332208816</v>
       </c>
       <c r="S15">
-        <v>0.0001004252771814112</v>
+        <v>2.003828425729648E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001004252771814112</v>
+        <v>2.003828425729648E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8450703333333333</v>
+        <v>0.1721486666666666</v>
       </c>
       <c r="H16">
-        <v>2.535211</v>
+        <v>0.516446</v>
       </c>
       <c r="I16">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="J16">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N16">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q16">
-        <v>0.2669872957616667</v>
+        <v>0.07284752006155554</v>
       </c>
       <c r="R16">
-        <v>2.402885661855</v>
+        <v>0.6556276805539999</v>
       </c>
       <c r="S16">
-        <v>1.285379417618995E-05</v>
+        <v>3.435280491482301E-06</v>
       </c>
       <c r="T16">
-        <v>1.285379417618995E-05</v>
+        <v>3.435280491482302E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8450703333333333</v>
+        <v>0.1721486666666666</v>
       </c>
       <c r="H17">
-        <v>2.535211</v>
+        <v>0.516446</v>
       </c>
       <c r="I17">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="J17">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N17">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O17">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P17">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q17">
-        <v>0.2214782864808889</v>
+        <v>0.022993208812</v>
       </c>
       <c r="R17">
-        <v>1.993304578328</v>
+        <v>0.206938879308</v>
       </c>
       <c r="S17">
-        <v>1.06628156249872E-05</v>
+        <v>1.084293900488283E-06</v>
       </c>
       <c r="T17">
-        <v>1.06628156249872E-05</v>
+        <v>1.084293900488283E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.8450703333333333</v>
+        <v>0.1721486666666666</v>
       </c>
       <c r="H18">
-        <v>2.535211</v>
+        <v>0.516446</v>
       </c>
       <c r="I18">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="J18">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N18">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q18">
-        <v>9.542353358948667</v>
+        <v>1.393232498791777</v>
       </c>
       <c r="R18">
-        <v>85.88118023053799</v>
+        <v>12.539092489126</v>
       </c>
       <c r="S18">
-        <v>0.0004594055521723873</v>
+        <v>6.570085596811369E-05</v>
       </c>
       <c r="T18">
-        <v>0.0004594055521723873</v>
+        <v>6.570085596811369E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.8450703333333333</v>
+        <v>0.1721486666666666</v>
       </c>
       <c r="H19">
-        <v>2.535211</v>
+        <v>0.516446</v>
       </c>
       <c r="I19">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="J19">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N19">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q19">
-        <v>0.3976616481654444</v>
+        <v>0.03303091065088889</v>
       </c>
       <c r="R19">
-        <v>3.578954833489</v>
+        <v>0.297278195858</v>
       </c>
       <c r="S19">
-        <v>1.914495954835981E-05</v>
+        <v>1.55764318234872E-06</v>
       </c>
       <c r="T19">
-        <v>1.914495954835981E-05</v>
+        <v>1.55764318234872E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>152.382926</v>
+        <v>43.33877</v>
       </c>
       <c r="H20">
-        <v>457.148778</v>
+        <v>130.01631</v>
       </c>
       <c r="I20">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="J20">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N20">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q20">
-        <v>318.8296278007007</v>
+        <v>318.9230453342867</v>
       </c>
       <c r="R20">
-        <v>2869.466650206306</v>
+        <v>2870.30740800858</v>
       </c>
       <c r="S20">
-        <v>0.01534968321743592</v>
+        <v>0.01503949777556238</v>
       </c>
       <c r="T20">
-        <v>0.01534968321743592</v>
+        <v>0.01503949777556238</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>152.382926</v>
+        <v>43.33877</v>
       </c>
       <c r="H21">
-        <v>457.148778</v>
+        <v>130.01631</v>
       </c>
       <c r="I21">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="J21">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>7.405096</v>
       </c>
       <c r="O21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q21">
-        <v>376.1367319302987</v>
+        <v>106.9759174573067</v>
       </c>
       <c r="R21">
-        <v>3385.230587372688</v>
+        <v>962.7832571157601</v>
       </c>
       <c r="S21">
-        <v>0.01810866738263341</v>
+        <v>0.005044678006732126</v>
       </c>
       <c r="T21">
-        <v>0.01810866738263341</v>
+        <v>0.005044678006732126</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>152.382926</v>
+        <v>43.33877</v>
       </c>
       <c r="H22">
-        <v>457.148778</v>
+        <v>130.01631</v>
       </c>
       <c r="I22">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="J22">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N22">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q22">
-        <v>48.14309972581</v>
+        <v>18.33950839207667</v>
       </c>
       <c r="R22">
-        <v>433.28789753229</v>
+        <v>165.05557552869</v>
       </c>
       <c r="S22">
-        <v>0.002317793785333351</v>
+        <v>0.0008648387117288455</v>
       </c>
       <c r="T22">
-        <v>0.002317793785333352</v>
+        <v>0.0008648387117288456</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>152.382926</v>
+        <v>43.33877</v>
       </c>
       <c r="H23">
-        <v>457.148778</v>
+        <v>130.01631</v>
       </c>
       <c r="I23">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="J23">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N23">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O23">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P23">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q23">
-        <v>39.93692360054933</v>
+        <v>5.78858615382</v>
       </c>
       <c r="R23">
-        <v>359.432312404944</v>
+        <v>52.09727538438</v>
       </c>
       <c r="S23">
-        <v>0.001922716938748769</v>
+        <v>0.0002729731509141204</v>
       </c>
       <c r="T23">
-        <v>0.001922716938748769</v>
+        <v>0.0002729731509141204</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>152.382926</v>
+        <v>43.33877</v>
       </c>
       <c r="H24">
-        <v>457.148778</v>
+        <v>130.01631</v>
       </c>
       <c r="I24">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="J24">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N24">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q24">
-        <v>1720.675390445836</v>
+        <v>350.7490588851234</v>
       </c>
       <c r="R24">
-        <v>15486.07851401252</v>
+        <v>3156.74152996611</v>
       </c>
       <c r="S24">
-        <v>0.0828399240860118</v>
+        <v>0.01654032146016354</v>
       </c>
       <c r="T24">
-        <v>0.08283992408601182</v>
+        <v>0.01654032146016354</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>152.382926</v>
+        <v>43.33877</v>
       </c>
       <c r="H25">
-        <v>457.148778</v>
+        <v>130.01631</v>
       </c>
       <c r="I25">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="J25">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N25">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O25">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P25">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q25">
-        <v>71.70627475042467</v>
+        <v>8.315597601236668</v>
       </c>
       <c r="R25">
-        <v>645.356472753822</v>
+        <v>74.84037841113</v>
       </c>
       <c r="S25">
-        <v>0.003452215560121867</v>
+        <v>0.0003921397762121068</v>
       </c>
       <c r="T25">
-        <v>0.003452215560121868</v>
+        <v>0.0003921397762121068</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.2508443333333333</v>
+        <v>0.4290093333333333</v>
       </c>
       <c r="H26">
-        <v>0.752533</v>
+        <v>1.287028</v>
       </c>
       <c r="I26">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="J26">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N26">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O26">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P26">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q26">
-        <v>0.5248396754934445</v>
+        <v>3.157010756500444</v>
       </c>
       <c r="R26">
-        <v>4.723557079441001</v>
+        <v>28.413096808504</v>
       </c>
       <c r="S26">
-        <v>2.526779839859203E-05</v>
+        <v>0.0001488755890940644</v>
       </c>
       <c r="T26">
-        <v>2.526779839859203E-05</v>
+        <v>0.0001488755890940644</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.2508443333333333</v>
+        <v>0.4290093333333333</v>
       </c>
       <c r="H27">
-        <v>0.752533</v>
+        <v>1.287028</v>
       </c>
       <c r="I27">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="J27">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>7.405096</v>
       </c>
       <c r="O27">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P27">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q27">
-        <v>0.6191754564631111</v>
+        <v>1.058951766076444</v>
       </c>
       <c r="R27">
-        <v>5.572579108168</v>
+        <v>9.530565894687999</v>
       </c>
       <c r="S27">
-        <v>2.980948533008059E-05</v>
+        <v>4.993713362306955E-05</v>
       </c>
       <c r="T27">
-        <v>2.980948533008059E-05</v>
+        <v>4.993713362306955E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.2508443333333333</v>
+        <v>0.4290093333333333</v>
       </c>
       <c r="H28">
-        <v>0.752533</v>
+        <v>1.287028</v>
       </c>
       <c r="I28">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="J28">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N28">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O28">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P28">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q28">
-        <v>0.07925050445166668</v>
+        <v>0.1815423065524444</v>
       </c>
       <c r="R28">
-        <v>0.713254540065</v>
+        <v>1.633880758972</v>
       </c>
       <c r="S28">
-        <v>3.815423762673304E-06</v>
+        <v>8.561015440900857E-06</v>
       </c>
       <c r="T28">
-        <v>3.815423762673304E-06</v>
+        <v>8.561015440900857E-06</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.2508443333333333</v>
+        <v>0.4290093333333333</v>
       </c>
       <c r="H29">
-        <v>0.752533</v>
+        <v>1.287028</v>
       </c>
       <c r="I29">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="J29">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N29">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O29">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P29">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q29">
-        <v>0.06574195179822223</v>
+        <v>0.05730106061599999</v>
       </c>
       <c r="R29">
-        <v>0.591677566184</v>
+        <v>0.5157095455439999</v>
       </c>
       <c r="S29">
-        <v>3.165070138429698E-06</v>
+        <v>2.70215397187244E-06</v>
       </c>
       <c r="T29">
-        <v>3.165070138429698E-06</v>
+        <v>2.70215397187244E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.2508443333333333</v>
+        <v>0.4290093333333333</v>
       </c>
       <c r="H30">
-        <v>0.752533</v>
+        <v>1.287028</v>
       </c>
       <c r="I30">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="J30">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N30">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O30">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P30">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q30">
-        <v>2.832480531312667</v>
+        <v>3.472055619474222</v>
       </c>
       <c r="R30">
-        <v>25.492324781814</v>
+        <v>31.248500575268</v>
       </c>
       <c r="S30">
-        <v>0.0001363664950936798</v>
+        <v>0.0001637322028923245</v>
       </c>
       <c r="T30">
-        <v>0.0001363664950936798</v>
+        <v>0.0001637322028923245</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.2508443333333333</v>
+        <v>0.4290093333333333</v>
       </c>
       <c r="H31">
-        <v>0.752533</v>
+        <v>1.287028</v>
       </c>
       <c r="I31">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="J31">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N31">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O31">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P31">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q31">
-        <v>0.1180388981741111</v>
+        <v>0.08231587982711111</v>
       </c>
       <c r="R31">
-        <v>1.062350083567</v>
+        <v>0.7408429184439999</v>
       </c>
       <c r="S31">
-        <v>5.682846060468282E-06</v>
+        <v>3.881781231129504E-06</v>
       </c>
       <c r="T31">
-        <v>5.682846060468283E-06</v>
+        <v>3.881781231129504E-06</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.780731666666667</v>
+        <v>0.2053263333333333</v>
       </c>
       <c r="H32">
-        <v>5.342195</v>
+        <v>0.6159789999999999</v>
       </c>
       <c r="I32">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="J32">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N32">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O32">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P32">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q32">
-        <v>3.725811213890556</v>
+        <v>1.510963497902444</v>
       </c>
       <c r="R32">
-        <v>33.53230092501501</v>
+        <v>13.598671481122</v>
       </c>
       <c r="S32">
-        <v>0.0001793748663061505</v>
+        <v>7.125271283497539E-05</v>
       </c>
       <c r="T32">
-        <v>0.0001793748663061505</v>
+        <v>7.12527128349754E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.780731666666667</v>
+        <v>0.2053263333333333</v>
       </c>
       <c r="H33">
-        <v>5.342195</v>
+        <v>0.6159789999999999</v>
       </c>
       <c r="I33">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="J33">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>7.405096</v>
       </c>
       <c r="O33">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P33">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q33">
-        <v>4.39549631396889</v>
+        <v>0.5068204032204444</v>
       </c>
       <c r="R33">
-        <v>39.55946682572</v>
+        <v>4.561383628984</v>
       </c>
       <c r="S33">
-        <v>0.0002116160799366006</v>
+        <v>2.39001992435322E-05</v>
       </c>
       <c r="T33">
-        <v>0.0002116160799366006</v>
+        <v>2.39001992435322E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.780731666666667</v>
+        <v>0.2053263333333333</v>
       </c>
       <c r="H34">
-        <v>5.342195</v>
+        <v>0.6159789999999999</v>
       </c>
       <c r="I34">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="J34">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N34">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O34">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P34">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q34">
-        <v>0.5625954591083334</v>
+        <v>0.08688719161344442</v>
       </c>
       <c r="R34">
-        <v>5.063359131975</v>
+        <v>0.7819847245209999</v>
       </c>
       <c r="S34">
-        <v>2.70855068785482E-05</v>
+        <v>4.09735120779864E-06</v>
       </c>
       <c r="T34">
-        <v>2.70855068785482E-05</v>
+        <v>4.097351207798641E-06</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.780731666666667</v>
+        <v>0.2053263333333333</v>
       </c>
       <c r="H35">
-        <v>5.342195</v>
+        <v>0.6159789999999999</v>
       </c>
       <c r="I35">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="J35">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N35">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O35">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P35">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q35">
-        <v>0.4666989038177778</v>
+        <v>0.02742461703799999</v>
       </c>
       <c r="R35">
-        <v>4.20029013436</v>
+        <v>0.246821553342</v>
       </c>
       <c r="S35">
-        <v>2.246867827479784E-05</v>
+        <v>1.293266425780957E-06</v>
       </c>
       <c r="T35">
-        <v>2.246867827479784E-05</v>
+        <v>1.293266425780957E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.780731666666667</v>
+        <v>0.2053263333333333</v>
       </c>
       <c r="H36">
-        <v>5.342195</v>
+        <v>0.6159789999999999</v>
       </c>
       <c r="I36">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="J36">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N36">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O36">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P36">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q36">
-        <v>20.10764090342333</v>
+        <v>1.661745780533222</v>
       </c>
       <c r="R36">
-        <v>180.96876813081</v>
+        <v>14.955712024799</v>
       </c>
       <c r="S36">
-        <v>0.0009680590861224437</v>
+        <v>7.836317361037301E-05</v>
       </c>
       <c r="T36">
-        <v>0.0009680590861224437</v>
+        <v>7.836317361037302E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.780731666666667</v>
+        <v>0.2053263333333333</v>
       </c>
       <c r="H37">
-        <v>5.342195</v>
+        <v>0.6159789999999999</v>
       </c>
       <c r="I37">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="J37">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N37">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O37">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P37">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q37">
-        <v>0.837952371033889</v>
+        <v>0.03939685332411111</v>
       </c>
       <c r="R37">
-        <v>7.541571339305</v>
+        <v>0.3545716799169999</v>
       </c>
       <c r="S37">
-        <v>4.034224653271465E-05</v>
+        <v>1.857842813808185E-06</v>
       </c>
       <c r="T37">
-        <v>4.034224653271466E-05</v>
+        <v>1.857842813808185E-06</v>
       </c>
     </row>
   </sheetData>
